--- a/src/main/resources/165-mall4cloud/mall4cloud-payment_structure.xlsx
+++ b/src/main/resources/165-mall4cloud/mall4cloud-payment_structure.xlsx
@@ -475,7 +475,7 @@
     <t>isPay(java.lang.String)</t>
   </si>
   <si>
-    <t>pay(javax.servlet.http.HttpServletRequest)</t>
+    <t>pay(javax.servlet.http.HttpServletRequest,com.mall4j.cloud.payment.dto.PayInfoDTO)</t>
   </si>
   <si>
     <t>com.mall4j.cloud.common.response.ServerResponseEntity</t>
